--- a/biology/Biochimie/Sharmila_Bhattacharya/Sharmila_Bhattacharya.xlsx
+++ b/biology/Biochimie/Sharmila_Bhattacharya/Sharmila_Bhattacharya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Dresse Sharmila Bhattacharya est une biologiste indienne, née le 24 mars 1964 à Lagos au Nigeria et qui passe son enfance en Inde.
 Elle est le chef du laboratoire Biomodel Performance and Behavior du Ames Research Center de la NASA.
@@ -512,9 +524,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après l'obtention d'un baccalauréat en chimie biologique au Wellesley College, elle commence sa carrière comme étudiante de premier cycle assistante de recherche au laboratoire de biochimie à l'Université de Princeton[1]. Après l'obtention de sa Maîtrise et son doctorat à l'Université de Princeton pour ses recherches en biologie moléculaire, où elle étudie le chemin de transduction du signal du ras oncogène chez Saccharomyces cerevisiae, elle effectue ses recherches post-doctorales à l'Université Stanford dans le domaine de la neurobiologie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après l'obtention d'un baccalauréat en chimie biologique au Wellesley College, elle commence sa carrière comme étudiante de premier cycle assistante de recherche au laboratoire de biochimie à l'Université de Princeton. Après l'obtention de sa Maîtrise et son doctorat à l'Université de Princeton pour ses recherches en biologie moléculaire, où elle étudie le chemin de transduction du signal du ras oncogène chez Saccharomyces cerevisiae, elle effectue ses recherches post-doctorales à l'Université Stanford dans le domaine de la neurobiologie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est embauchée en tant que scientifique par Lockheed Martin pour travailler au NASA Ames Center. Elle est ensuite promue au poste de Cheffe de mission dans la Division des petits vaisseaux spatiaux de l'Ames center[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est embauchée en tant que scientifique par Lockheed Martin pour travailler au NASA Ames Center. Elle est ensuite promue au poste de Cheffe de mission dans la Division des petits vaisseaux spatiaux de l'Ames center.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Sélection d'articles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Developing New Habitats for Life Science Experiments on the International Space Station [2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Developing New Habitats for Life Science Experiments on the International Space Station 
 T.Fahlen, M. Sanchez, M.Lera, E.Blazevic, J.Chang et S.Bhattacharya (2006). A Study of the Effects of Spaceflight on the Immune Response in Drosophila melanogaster. Gravitational and Space Biol. 19(2):133
 S. Bhattacharya, B.A. Stewart, B.A. Niemeyer, R.W. Burgess, B.D.McCabe, P.Lin, G.Boulianne, C.J. O’Kane, et T.L. Schwarz (2002). Members of the Synaptobrevin/VAMP family in Drosophila are functionally interchangeable in vivo for neurotransmitter release and cell viability. Proceedings of the National Academy of Sciences. 99(21):13867-13872.
 S. Bhattacharya, R.Bowman, F.Donovan, B.Girten, E.Hill, M.Kirven-Brooks, O.Santos (2001). The Space Station Biological Research Project: Habitat Development and Capabilities. Publication of the American Institute of Aeronautics and Astronautics, #2001-4984: 1-11.
